--- a/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BCRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8680F22-7DA9-401A-9B32-74ECEEC3487B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A8CD6-A3B5-4DA2-8C85-5452858DFAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7365" uniqueCount="1137">
   <si>
     <t>nuclear</t>
   </si>
@@ -3446,6 +3446,24 @@
   </si>
   <si>
     <t>We assume a $500/kW incentive is enough to retire all majority owned co-op coal plants. We get data on co-op ownership shares from EIA 860. We exclude industrial CHP and non-CHP, because those facilities have different economics and offtakers (available on request; file is large).</t>
+  </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
   </si>
 </sst>
 </file>
@@ -3916,12 +3934,6 @@
     <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="21"/>
@@ -3941,6 +3953,12 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="21" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4818,21 +4836,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="47" t="s">
         <v>1019</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -11037,21 +11055,21 @@
         <f t="shared" si="1"/>
         <v>.</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="48" t="s">
         <v>972</v>
       </c>
-      <c r="E119" s="33"/>
-      <c r="F119" s="33"/>
-      <c r="G119" s="33"/>
-      <c r="H119" s="33"/>
-      <c r="I119" s="33"/>
-      <c r="J119" s="33"/>
-      <c r="K119" s="33"/>
-      <c r="L119" s="33"/>
-      <c r="M119" s="33"/>
-      <c r="N119" s="33"/>
-      <c r="O119" s="33"/>
-      <c r="P119" s="33"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
+      <c r="I119" s="48"/>
+      <c r="J119" s="48"/>
+      <c r="K119" s="48"/>
+      <c r="L119" s="48"/>
+      <c r="M119" s="48"/>
+      <c r="N119" s="48"/>
+      <c r="O119" s="48"/>
+      <c r="P119" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11097,21 +11115,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="47" t="s">
         <v>1023</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -16839,21 +16857,21 @@
         <f t="shared" si="1"/>
         <v>.</v>
       </c>
-      <c r="D110" s="33" t="s">
+      <c r="D110" s="48" t="s">
         <v>972</v>
       </c>
-      <c r="E110" s="33"/>
-      <c r="F110" s="33"/>
-      <c r="G110" s="33"/>
-      <c r="H110" s="33"/>
-      <c r="I110" s="33"/>
-      <c r="J110" s="33"/>
-      <c r="K110" s="33"/>
-      <c r="L110" s="33"/>
-      <c r="M110" s="33"/>
-      <c r="N110" s="33"/>
-      <c r="O110" s="33"/>
-      <c r="P110" s="33"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="48"/>
+      <c r="K110" s="48"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="48"/>
+      <c r="N110" s="48"/>
+      <c r="O110" s="48"/>
+      <c r="P110" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -16899,21 +16917,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="47" t="s">
         <v>1026</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -23065,21 +23083,21 @@
         <f t="shared" si="2"/>
         <v>.</v>
       </c>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="48" t="s">
         <v>972</v>
       </c>
-      <c r="E118" s="33"/>
-      <c r="F118" s="33"/>
-      <c r="G118" s="33"/>
-      <c r="H118" s="33"/>
-      <c r="I118" s="33"/>
-      <c r="J118" s="33"/>
-      <c r="K118" s="33"/>
-      <c r="L118" s="33"/>
-      <c r="M118" s="33"/>
-      <c r="N118" s="33"/>
-      <c r="O118" s="33"/>
-      <c r="P118" s="33"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
+      <c r="I118" s="48"/>
+      <c r="J118" s="48"/>
+      <c r="K118" s="48"/>
+      <c r="L118" s="48"/>
+      <c r="M118" s="48"/>
+      <c r="N118" s="48"/>
+      <c r="O118" s="48"/>
+      <c r="P118" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -23124,21 +23142,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="47" t="s">
         <v>1031</v>
       </c>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -52247,21 +52265,21 @@
         <f>IF(AND(Crosswalk!$F$2=FALSE,H551="Industrial"),"FALSE",IF(AND(Crosswalk!$F$2=FALSE,H551="Commercial"),"FALSE","TRUE"))</f>
         <v>TRUE</v>
       </c>
-      <c r="D551" s="33" t="s">
+      <c r="D551" s="48" t="s">
         <v>972</v>
       </c>
-      <c r="E551" s="33"/>
-      <c r="F551" s="33"/>
-      <c r="G551" s="33"/>
-      <c r="H551" s="33"/>
-      <c r="I551" s="33"/>
-      <c r="J551" s="33"/>
-      <c r="K551" s="33"/>
-      <c r="L551" s="33"/>
-      <c r="M551" s="33"/>
-      <c r="N551" s="33"/>
-      <c r="O551" s="33"/>
-      <c r="P551" s="33"/>
+      <c r="E551" s="48"/>
+      <c r="F551" s="48"/>
+      <c r="G551" s="48"/>
+      <c r="H551" s="48"/>
+      <c r="I551" s="48"/>
+      <c r="J551" s="48"/>
+      <c r="K551" s="48"/>
+      <c r="L551" s="48"/>
+      <c r="M551" s="48"/>
+      <c r="N551" s="48"/>
+      <c r="O551" s="48"/>
+      <c r="P551" s="48"/>
     </row>
     <row r="556" spans="1:16" x14ac:dyDescent="0.25">
       <c r="M556" s="27"/>
@@ -52294,827 +52312,827 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="28.28515625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="36" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="36"/>
-    <col min="6" max="6" width="25" style="36" customWidth="1"/>
-    <col min="7" max="7" width="35.85546875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" style="36" customWidth="1"/>
-    <col min="9" max="16384" width="12.5703125" style="36"/>
+    <col min="1" max="1" width="67.28515625" style="34" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="34" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" style="34" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="34"/>
+    <col min="6" max="6" width="25" style="34" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" style="34" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="34" customWidth="1"/>
+    <col min="9" max="16384" width="12.5703125" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="32" t="s">
         <v>1086</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
+      <c r="X1" s="33"/>
+      <c r="Y1" s="33"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+      <c r="AD1" s="33"/>
+      <c r="AE1" s="33"/>
+      <c r="AF1" s="33"/>
     </row>
     <row r="2" spans="1:32" ht="51" x14ac:dyDescent="0.2">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="38"/>
+      <c r="A3" s="36"/>
     </row>
     <row r="4" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>1087</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
     </row>
     <row r="5" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:32" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>1129</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="37">
         <f>C32/10</f>
         <v>1997.2</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="38" t="s">
         <v>1088</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="33"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="33"/>
     </row>
     <row r="9" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
         <v>1089</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="40" t="s">
         <v>1090</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>1091</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="40" t="s">
         <v>1092</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="40" t="s">
         <v>1093</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>1094</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="40" t="s">
         <v>1095</v>
       </c>
-      <c r="H9" s="38" t="s">
+      <c r="H9" s="36" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="41" t="s">
         <v>1097</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="42">
         <v>204</v>
       </c>
-      <c r="C10" s="44">
+      <c r="C10" s="42">
         <v>204</v>
       </c>
-      <c r="D10" s="45">
+      <c r="D10" s="43">
         <v>99387</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="44" t="s">
         <v>1098</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="45">
         <f t="shared" ref="F10:F30" si="0">D10/B10</f>
         <v>487.19117647058823</v>
       </c>
-      <c r="G10" s="47">
+      <c r="G10" s="45">
         <f t="shared" ref="G10:G30" si="1">MIN(F10,500)*B10</f>
         <v>99387</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="45">
         <f t="shared" ref="H10:H30" si="2">IF(D10="",C10*500,(G10*C10/B10))</f>
         <v>99387</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="41" t="s">
         <v>1099</v>
       </c>
-      <c r="B11" s="44">
+      <c r="B11" s="42">
         <v>2482</v>
       </c>
-      <c r="C11" s="44">
+      <c r="C11" s="42">
         <v>2482</v>
       </c>
-      <c r="D11" s="45">
+      <c r="D11" s="43">
         <v>829562</v>
       </c>
-      <c r="E11" s="46" t="s">
+      <c r="E11" s="44" t="s">
         <v>1100</v>
       </c>
-      <c r="F11" s="47">
+      <c r="F11" s="45">
         <f t="shared" si="0"/>
         <v>334.23126510878325</v>
       </c>
-      <c r="G11" s="47">
+      <c r="G11" s="45">
         <f t="shared" si="1"/>
         <v>829562</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="45">
         <f t="shared" si="2"/>
         <v>829562</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="41" t="s">
         <v>1101</v>
       </c>
-      <c r="B12" s="44">
+      <c r="B12" s="42">
         <v>3234</v>
       </c>
-      <c r="C12" s="44">
+      <c r="C12" s="42">
         <v>3147</v>
       </c>
-      <c r="D12" s="45">
+      <c r="D12" s="43">
         <v>2151471</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="44" t="s">
         <v>1102</v>
       </c>
-      <c r="F12" s="47">
+      <c r="F12" s="45">
         <f t="shared" si="0"/>
         <v>665.26623376623377</v>
       </c>
-      <c r="G12" s="47">
+      <c r="G12" s="45">
         <f t="shared" si="1"/>
         <v>1617000</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="45">
         <f t="shared" si="2"/>
         <v>1573500</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="41" t="s">
         <v>1103</v>
       </c>
-      <c r="B13" s="44">
+      <c r="B13" s="42">
         <v>1095</v>
       </c>
-      <c r="C13" s="44">
+      <c r="C13" s="42">
         <v>1095</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="43">
         <v>710529</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="44" t="s">
         <v>1104</v>
       </c>
-      <c r="F13" s="47">
+      <c r="F13" s="45">
         <f t="shared" si="0"/>
         <v>648.88493150684928</v>
       </c>
-      <c r="G13" s="47">
+      <c r="G13" s="45">
         <f t="shared" si="1"/>
         <v>547500</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="45">
         <f t="shared" si="2"/>
         <v>547500</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="41" t="s">
         <v>832</v>
       </c>
-      <c r="B14" s="44">
+      <c r="B14" s="42">
         <v>1265</v>
       </c>
-      <c r="C14" s="44">
+      <c r="C14" s="42">
         <v>1265</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48" t="s">
+      <c r="D14" s="46"/>
+      <c r="E14" s="46" t="s">
         <v>1105</v>
       </c>
-      <c r="F14" s="47">
+      <c r="F14" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="45">
         <f t="shared" si="2"/>
         <v>632500</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="41" t="s">
         <v>367</v>
       </c>
-      <c r="B15" s="44">
+      <c r="B15" s="42">
         <v>733</v>
       </c>
-      <c r="C15" s="44">
+      <c r="C15" s="42">
         <v>733</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="43">
         <v>648500</v>
       </c>
-      <c r="E15" s="46" t="s">
+      <c r="E15" s="44" t="s">
         <v>1106</v>
       </c>
-      <c r="F15" s="47">
+      <c r="F15" s="45">
         <f t="shared" si="0"/>
         <v>884.72032742155523</v>
       </c>
-      <c r="G15" s="47">
+      <c r="G15" s="45">
         <f t="shared" si="1"/>
         <v>366500</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="45">
         <f t="shared" si="2"/>
         <v>366500</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="41" t="s">
         <v>1107</v>
       </c>
-      <c r="B16" s="44">
+      <c r="B16" s="42">
         <v>500</v>
       </c>
-      <c r="C16" s="44">
+      <c r="C16" s="42">
         <v>481</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="43">
         <v>90863</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="E16" s="46" t="s">
         <v>1108</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="45">
         <f t="shared" si="0"/>
         <v>181.726</v>
       </c>
-      <c r="G16" s="47">
+      <c r="G16" s="45">
         <f t="shared" si="1"/>
         <v>90863</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="45">
         <f t="shared" si="2"/>
         <v>87410.206000000006</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="41" t="s">
         <v>1109</v>
       </c>
-      <c r="B17" s="44">
+      <c r="B17" s="42">
         <v>1953</v>
       </c>
-      <c r="C17" s="44">
+      <c r="C17" s="42">
         <v>1953</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="43">
         <v>1129794</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="44" t="s">
         <v>1110</v>
       </c>
-      <c r="F17" s="47">
+      <c r="F17" s="45">
         <f t="shared" si="0"/>
         <v>578.49155145929342</v>
       </c>
-      <c r="G17" s="47">
+      <c r="G17" s="45">
         <f t="shared" si="1"/>
         <v>976500</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="45">
         <f t="shared" si="2"/>
         <v>976500</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="41" t="s">
         <v>447</v>
       </c>
-      <c r="B18" s="44">
+      <c r="B18" s="42">
         <v>1782</v>
       </c>
-      <c r="C18" s="44">
+      <c r="C18" s="42">
         <v>1069</v>
       </c>
-      <c r="D18" s="45">
+      <c r="D18" s="43">
         <v>1128556</v>
       </c>
-      <c r="E18" s="46" t="s">
+      <c r="E18" s="44" t="s">
         <v>1111</v>
       </c>
-      <c r="F18" s="47">
+      <c r="F18" s="45">
         <f t="shared" si="0"/>
         <v>633.30864197530866</v>
       </c>
-      <c r="G18" s="47">
+      <c r="G18" s="45">
         <f t="shared" si="1"/>
         <v>891000</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="45">
         <f t="shared" si="2"/>
         <v>534500</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="41" t="s">
         <v>1112</v>
       </c>
-      <c r="B19" s="44">
+      <c r="B19" s="42">
         <v>90</v>
       </c>
-      <c r="C19" s="44">
+      <c r="C19" s="42">
         <v>90</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48" t="s">
+      <c r="D19" s="46"/>
+      <c r="E19" s="46" t="s">
         <v>1105</v>
       </c>
-      <c r="F19" s="47">
+      <c r="F19" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="45">
         <f t="shared" si="2"/>
         <v>45000</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="41" t="s">
         <v>1113</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="42">
         <v>1210</v>
       </c>
-      <c r="C20" s="44">
+      <c r="C20" s="42">
         <v>1210</v>
       </c>
-      <c r="D20" s="45">
+      <c r="D20" s="43">
         <v>529334</v>
       </c>
-      <c r="E20" s="46" t="s">
+      <c r="E20" s="44" t="s">
         <v>1114</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="45">
         <f t="shared" si="0"/>
         <v>437.46611570247933</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="45">
         <f t="shared" si="1"/>
         <v>529334</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="45">
         <f t="shared" si="2"/>
         <v>529334</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="41" t="s">
         <v>1115</v>
       </c>
-      <c r="B21" s="44">
+      <c r="B21" s="42">
         <v>1080</v>
       </c>
-      <c r="C21" s="44">
+      <c r="C21" s="42">
         <v>1080</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="43">
         <v>546963</v>
       </c>
-      <c r="E21" s="46" t="s">
+      <c r="E21" s="44" t="s">
         <v>1116</v>
       </c>
-      <c r="F21" s="47">
+      <c r="F21" s="45">
         <f t="shared" si="0"/>
         <v>506.44722222222219</v>
       </c>
-      <c r="G21" s="47">
+      <c r="G21" s="45">
         <f t="shared" si="1"/>
         <v>540000</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="45">
         <f t="shared" si="2"/>
         <v>540000</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="41" t="s">
         <v>1117</v>
       </c>
-      <c r="B22" s="44">
+      <c r="B22" s="42">
         <v>734</v>
       </c>
-      <c r="C22" s="44">
+      <c r="C22" s="42">
         <v>734</v>
       </c>
-      <c r="D22" s="45">
+      <c r="D22" s="43">
         <v>648946</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="46" t="s">
         <v>1118</v>
       </c>
-      <c r="F22" s="47">
+      <c r="F22" s="45">
         <f t="shared" si="0"/>
         <v>884.12261580381471</v>
       </c>
-      <c r="G22" s="47">
+      <c r="G22" s="45">
         <f t="shared" si="1"/>
         <v>367000</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="45">
         <f t="shared" si="2"/>
         <v>367000</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="41" t="s">
         <v>1119</v>
       </c>
-      <c r="B23" s="44">
+      <c r="B23" s="42">
         <v>410</v>
       </c>
-      <c r="C23" s="44">
+      <c r="C23" s="42">
         <v>410</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48" t="s">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46" t="s">
         <v>1105</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G23" s="47">
+      <c r="G23" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="45">
         <f t="shared" si="2"/>
         <v>205000</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="41" t="s">
         <v>723</v>
       </c>
-      <c r="B24" s="44">
+      <c r="B24" s="42">
         <v>1429</v>
       </c>
-      <c r="C24" s="44">
+      <c r="C24" s="42">
         <v>1429</v>
       </c>
-      <c r="D24" s="45">
+      <c r="D24" s="43">
         <v>863562</v>
       </c>
-      <c r="E24" s="46" t="s">
+      <c r="E24" s="44" t="s">
         <v>1120</v>
       </c>
-      <c r="F24" s="47">
+      <c r="F24" s="45">
         <f t="shared" si="0"/>
         <v>604.31210636808953</v>
       </c>
-      <c r="G24" s="47">
+      <c r="G24" s="45">
         <f t="shared" si="1"/>
         <v>714500</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="45">
         <f t="shared" si="2"/>
         <v>714500</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="41" t="s">
         <v>1121</v>
       </c>
-      <c r="B25" s="44">
+      <c r="B25" s="42">
         <v>99</v>
       </c>
-      <c r="C25" s="44">
+      <c r="C25" s="42">
         <v>99</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48" t="s">
+      <c r="D25" s="46"/>
+      <c r="E25" s="46" t="s">
         <v>1105</v>
       </c>
-      <c r="F25" s="47">
+      <c r="F25" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G25" s="47">
+      <c r="G25" s="45">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="45">
         <f t="shared" si="2"/>
         <v>49500</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="B26" s="44">
+      <c r="B26" s="42">
         <v>558</v>
       </c>
-      <c r="C26" s="44">
+      <c r="C26" s="42">
         <v>279</v>
       </c>
-      <c r="D26" s="45">
+      <c r="D26" s="43">
         <v>556475</v>
       </c>
-      <c r="E26" s="46" t="s">
+      <c r="E26" s="44" t="s">
         <v>1122</v>
       </c>
-      <c r="F26" s="47">
+      <c r="F26" s="45">
         <f t="shared" si="0"/>
         <v>997.26702508960568</v>
       </c>
-      <c r="G26" s="47">
+      <c r="G26" s="45">
         <f t="shared" si="1"/>
         <v>279000</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="45">
         <f t="shared" si="2"/>
         <v>139500</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="41" t="s">
         <v>1123</v>
       </c>
-      <c r="B27" s="44">
+      <c r="B27" s="42">
         <v>349</v>
       </c>
-      <c r="C27" s="44">
+      <c r="C27" s="42">
         <v>349</v>
       </c>
-      <c r="D27" s="45">
+      <c r="D27" s="43">
         <v>200549</v>
       </c>
-      <c r="E27" s="46" t="s">
+      <c r="E27" s="44" t="s">
         <v>1124</v>
       </c>
-      <c r="F27" s="47">
+      <c r="F27" s="45">
         <f t="shared" si="0"/>
         <v>574.6389684813754</v>
       </c>
-      <c r="G27" s="47">
+      <c r="G27" s="45">
         <f t="shared" si="1"/>
         <v>174500</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="45">
         <f t="shared" si="2"/>
         <v>174500</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="43" t="s">
+      <c r="A28" s="41" t="s">
         <v>230</v>
       </c>
-      <c r="B28" s="44">
+      <c r="B28" s="42">
         <v>993</v>
       </c>
-      <c r="C28" s="44">
+      <c r="C28" s="42">
         <v>993</v>
       </c>
-      <c r="D28" s="45">
+      <c r="D28" s="43">
         <v>1426571</v>
       </c>
-      <c r="E28" s="46" t="s">
+      <c r="E28" s="44" t="s">
         <v>1125</v>
       </c>
-      <c r="F28" s="47">
+      <c r="F28" s="45">
         <f t="shared" si="0"/>
         <v>1436.6273917421954</v>
       </c>
-      <c r="G28" s="47">
+      <c r="G28" s="45">
         <f t="shared" si="1"/>
         <v>496500</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="45">
         <f t="shared" si="2"/>
         <v>496500</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="43" t="s">
+      <c r="A29" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="B29" s="44">
+      <c r="B29" s="42">
         <v>848</v>
       </c>
-      <c r="C29" s="44">
+      <c r="C29" s="42">
         <v>424</v>
       </c>
-      <c r="D29" s="45">
+      <c r="D29" s="43">
         <v>306164</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="44" t="s">
         <v>1126</v>
       </c>
-      <c r="F29" s="47">
+      <c r="F29" s="45">
         <f t="shared" si="0"/>
         <v>361.04245283018867</v>
       </c>
-      <c r="G29" s="47">
+      <c r="G29" s="45">
         <f t="shared" si="1"/>
         <v>306164</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="45">
         <f t="shared" si="2"/>
         <v>153082</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="41" t="s">
         <v>1127</v>
       </c>
-      <c r="B30" s="44">
+      <c r="B30" s="42">
         <v>446</v>
       </c>
-      <c r="C30" s="44">
+      <c r="C30" s="42">
         <v>446</v>
       </c>
-      <c r="D30" s="45">
+      <c r="D30" s="43">
         <v>194939</v>
       </c>
-      <c r="E30" s="46" t="s">
+      <c r="E30" s="44" t="s">
         <v>1104</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="45">
         <f t="shared" si="0"/>
         <v>437.08295964125563</v>
       </c>
-      <c r="G30" s="47">
+      <c r="G30" s="45">
         <f t="shared" si="1"/>
         <v>194939</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="45">
         <f t="shared" si="2"/>
         <v>194939</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="37" t="s">
         <v>1128</v>
       </c>
-      <c r="B32" s="39">
+      <c r="B32" s="37">
         <f t="shared" ref="B32:H32" si="3">SUM(B10:B30)</f>
         <v>21494</v>
       </c>
-      <c r="C32" s="39">
+      <c r="C32" s="37">
         <f t="shared" si="3"/>
         <v>19972</v>
       </c>
-      <c r="D32" s="47">
+      <c r="D32" s="45">
         <f t="shared" si="3"/>
         <v>12062165</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="37">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F32" s="47">
+      <c r="F32" s="45">
         <f t="shared" si="3"/>
         <v>10652.826985589836</v>
       </c>
-      <c r="G32" s="47">
+      <c r="G32" s="45">
         <f t="shared" si="3"/>
         <v>9020249</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="45">
         <f t="shared" si="3"/>
         <v>9256214.2060000002</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="37"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="F34" s="47"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="F34" s="45"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -53143,10 +53161,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AH20"/>
+  <dimension ref="A1:AH24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:N2"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53155,7 +53173,7 @@
     <col min="2" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>292</v>
       </c>
@@ -55460,8 +55478,593 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B19" s="8">
+        <v>0</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0</v>
+      </c>
+    </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+      <c r="A20" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>0</v>
+      </c>
+      <c r="V21" s="1">
+        <v>0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1">
+        <v>0</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>0</v>
+      </c>
+      <c r="V23" s="1">
+        <v>0</v>
+      </c>
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B24" s="8">
+        <v>0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0</v>
+      </c>
+      <c r="V24" s="1">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/BCRbQ/BAU Cap Retirements before Quantization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\BCRbQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A8CD6-A3B5-4DA2-8C85-5452858DFAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E62B391-D461-4B27-9AB5-5FD76E8956DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7365" uniqueCount="1137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7366" uniqueCount="1138">
   <si>
     <t>nuclear</t>
   </si>
@@ -3463,7 +3463,10 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -3475,7 +3478,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3645,6 +3648,14 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3865,7 +3876,7 @@
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3958,6 +3969,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -53161,10 +53175,10 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:AH24"/>
+  <dimension ref="A1:AH25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:AF25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55969,7 +55983,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="49" t="s">
         <v>1136</v>
       </c>
       <c r="B24" s="8">
@@ -56063,6 +56077,104 @@
         <v>0</v>
       </c>
       <c r="AF24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="49" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="1">
         <v>0</v>
       </c>
     </row>
